--- a/Semestralka/Semestralka Meranie.xlsx
+++ b/Semestralka/Semestralka Meranie.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobias/Documents/MaS/MaS-2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobias/Documents/MaS/MaS-2022/Semestralka/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E6820F-557F-6140-B22B-9E810A8C2AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489F0A5E-9FDD-FB49-BF7E-BB41E73EBAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{F6057577-02F1-B04F-9786-67784ED7B024}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -160,7 +160,7 @@
       <xdr:col>23</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>142624</xdr:rowOff>
+      <xdr:rowOff>117224</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -493,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D2B258-B4E1-2F42-874F-1F854D27834E}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A118" sqref="A1:A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -757,6 +757,346 @@
         <v>14</v>
       </c>
     </row>
+    <row r="51" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
